--- a/data/probabilidade_vitoria_jogos_futuros_sub_14.xlsx
+++ b/data/probabilidade_vitoria_jogos_futuros_sub_14.xlsx
@@ -471,7 +471,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0.43</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -482,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0.875</v>
+        <v>0.9350000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -493,7 +493,7 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>0.14</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -515,7 +515,7 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.345</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -526,7 +526,7 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>0.605</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -537,7 +537,7 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>0.395</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -548,7 +548,7 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -559,7 +559,7 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>0.33</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -570,7 +570,7 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>0.255</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -581,7 +581,7 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>0.895</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -592,7 +592,7 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>0.175</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -603,7 +603,7 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>0.775</v>
+        <v>0.895</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -614,7 +614,7 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>0.58</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -625,7 +625,7 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>0.75</v>
+        <v>0.9359999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -636,7 +636,7 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>0.465</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -647,7 +647,7 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>0.79</v>
+        <v>0.955</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -658,7 +658,7 @@
         <v>21</v>
       </c>
       <c r="C19">
-        <v>0.345</v>
+        <v>0.821</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -669,7 +669,7 @@
         <v>22</v>
       </c>
       <c r="C20">
-        <v>0.77</v>
+        <v>0.9350000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -680,7 +680,7 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>0.27</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -691,7 +691,7 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>0.275</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -702,7 +702,7 @@
         <v>3</v>
       </c>
       <c r="C23">
-        <v>0.415</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -713,7 +713,7 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>0.7</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -724,7 +724,7 @@
         <v>6</v>
       </c>
       <c r="C25">
-        <v>0.155</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -735,7 +735,7 @@
         <v>7</v>
       </c>
       <c r="C26">
-        <v>0.82</v>
+        <v>0.845</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -746,7 +746,7 @@
         <v>8</v>
       </c>
       <c r="C27">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -757,7 +757,7 @@
         <v>9</v>
       </c>
       <c r="C28">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -768,7 +768,7 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>0.245</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -779,7 +779,7 @@
         <v>11</v>
       </c>
       <c r="C30">
-        <v>0.245</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -790,7 +790,7 @@
         <v>12</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -801,7 +801,7 @@
         <v>13</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -812,7 +812,7 @@
         <v>14</v>
       </c>
       <c r="C33">
-        <v>0.78</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -823,7 +823,7 @@
         <v>15</v>
       </c>
       <c r="C34">
-        <v>0.15</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -834,7 +834,7 @@
         <v>16</v>
       </c>
       <c r="C35">
-        <v>0.625</v>
+        <v>0.545</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -845,7 +845,7 @@
         <v>17</v>
       </c>
       <c r="C36">
-        <v>0.37</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -856,7 +856,7 @@
         <v>18</v>
       </c>
       <c r="C37">
-        <v>0.755</v>
+        <v>0.6759999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -867,7 +867,7 @@
         <v>19</v>
       </c>
       <c r="C38">
-        <v>0.345</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -878,7 +878,7 @@
         <v>20</v>
       </c>
       <c r="C39">
-        <v>0.595</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -889,7 +889,7 @@
         <v>21</v>
       </c>
       <c r="C40">
-        <v>0.07000000000000001</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -900,7 +900,7 @@
         <v>22</v>
       </c>
       <c r="C41">
-        <v>0.5649999999999999</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -911,7 +911,7 @@
         <v>23</v>
       </c>
       <c r="C42">
-        <v>0.105</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -922,7 +922,7 @@
         <v>24</v>
       </c>
       <c r="C43">
-        <v>0.23</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -933,7 +933,7 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <v>0.495</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -944,7 +944,7 @@
         <v>4</v>
       </c>
       <c r="C45">
-        <v>0.75</v>
+        <v>0.845</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -955,7 +955,7 @@
         <v>6</v>
       </c>
       <c r="C46">
-        <v>0.3</v>
+        <v>0.345</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -966,7 +966,7 @@
         <v>7</v>
       </c>
       <c r="C47">
-        <v>0.73</v>
+        <v>0.865</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -977,7 +977,7 @@
         <v>8</v>
       </c>
       <c r="C48">
-        <v>0.745</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -988,7 +988,7 @@
         <v>9</v>
       </c>
       <c r="C49">
-        <v>0.435</v>
+        <v>0.735</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -999,7 +999,7 @@
         <v>10</v>
       </c>
       <c r="C50">
-        <v>0.945</v>
+        <v>0.905</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1010,7 +1010,7 @@
         <v>11</v>
       </c>
       <c r="C51">
-        <v>0.28</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1021,7 +1021,7 @@
         <v>12</v>
       </c>
       <c r="C52">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1032,7 +1032,7 @@
         <v>13</v>
       </c>
       <c r="C53">
-        <v>0.925</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1043,7 +1043,7 @@
         <v>14</v>
       </c>
       <c r="C54">
-        <v>0.905</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1054,7 +1054,7 @@
         <v>15</v>
       </c>
       <c r="C55">
-        <v>0.27</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1065,7 +1065,7 @@
         <v>16</v>
       </c>
       <c r="C56">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1076,7 +1076,7 @@
         <v>17</v>
       </c>
       <c r="C57">
-        <v>0.425</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1109,7 +1109,7 @@
         <v>20</v>
       </c>
       <c r="C60">
-        <v>0.9399999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1120,7 +1120,7 @@
         <v>21</v>
       </c>
       <c r="C61">
-        <v>0.7</v>
+        <v>0.715</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1131,7 +1131,7 @@
         <v>22</v>
       </c>
       <c r="C62">
-        <v>0.895</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1142,7 +1142,7 @@
         <v>23</v>
       </c>
       <c r="C63">
-        <v>0.235</v>
+        <v>0.585</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1153,7 +1153,7 @@
         <v>24</v>
       </c>
       <c r="C64">
-        <v>0.61</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1164,7 +1164,7 @@
         <v>3</v>
       </c>
       <c r="C65">
-        <v>0.64</v>
+        <v>0.435</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1175,7 +1175,7 @@
         <v>4</v>
       </c>
       <c r="C66">
-        <v>0.175</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1186,7 +1186,7 @@
         <v>5</v>
       </c>
       <c r="C67">
-        <v>0.64</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1197,7 +1197,7 @@
         <v>7</v>
       </c>
       <c r="C68">
-        <v>0.65</v>
+        <v>0.725</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1208,7 +1208,7 @@
         <v>8</v>
       </c>
       <c r="C69">
-        <v>0.26</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1219,7 +1219,7 @@
         <v>9</v>
       </c>
       <c r="C70">
-        <v>0.38</v>
+        <v>0.515</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1230,7 +1230,7 @@
         <v>10</v>
       </c>
       <c r="C71">
-        <v>0.315</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1241,7 +1241,7 @@
         <v>11</v>
       </c>
       <c r="C72">
-        <v>0.63</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1252,7 +1252,7 @@
         <v>12</v>
       </c>
       <c r="C73">
-        <v>0.245</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1263,7 +1263,7 @@
         <v>13</v>
       </c>
       <c r="C74">
-        <v>0.17</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1274,7 +1274,7 @@
         <v>14</v>
       </c>
       <c r="C75">
-        <v>0.66</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1285,7 +1285,7 @@
         <v>15</v>
       </c>
       <c r="C76">
-        <v>0.375</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1307,7 +1307,7 @@
         <v>17</v>
       </c>
       <c r="C78">
-        <v>0.475</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1318,7 +1318,7 @@
         <v>18</v>
       </c>
       <c r="C79">
-        <v>0.5600000000000001</v>
+        <v>0.491</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1329,7 +1329,7 @@
         <v>19</v>
       </c>
       <c r="C80">
-        <v>0.38</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1340,7 +1340,7 @@
         <v>20</v>
       </c>
       <c r="C81">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1351,7 +1351,7 @@
         <v>21</v>
       </c>
       <c r="C82">
-        <v>0.125</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1362,7 +1362,7 @@
         <v>22</v>
       </c>
       <c r="C83">
-        <v>0.575</v>
+        <v>0.585</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1373,7 +1373,7 @@
         <v>23</v>
       </c>
       <c r="C84">
-        <v>0.475</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1384,7 +1384,7 @@
         <v>24</v>
       </c>
       <c r="C85">
-        <v>0.015</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1395,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C86">
-        <v>0.46</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1406,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C87">
-        <v>0.405</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1417,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C88">
-        <v>0.9</v>
+        <v>0.765</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1428,7 +1428,7 @@
         <v>6</v>
       </c>
       <c r="C89">
-        <v>0.125</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1439,7 +1439,7 @@
         <v>8</v>
       </c>
       <c r="C90">
-        <v>0.48</v>
+        <v>0.645</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1450,7 +1450,7 @@
         <v>9</v>
       </c>
       <c r="C91">
-        <v>0.5600000000000001</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1461,7 +1461,7 @@
         <v>10</v>
       </c>
       <c r="C92">
-        <v>0.515</v>
+        <v>0.6850000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1472,7 +1472,7 @@
         <v>11</v>
       </c>
       <c r="C93">
-        <v>0.265</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1483,7 +1483,7 @@
         <v>12</v>
       </c>
       <c r="C94">
-        <v>0.425</v>
+        <v>0.605</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1494,7 +1494,7 @@
         <v>13</v>
       </c>
       <c r="C95">
-        <v>0.455</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1505,7 +1505,7 @@
         <v>14</v>
       </c>
       <c r="C96">
-        <v>0.9350000000000001</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1516,7 +1516,7 @@
         <v>15</v>
       </c>
       <c r="C97">
-        <v>0.14</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1527,7 +1527,7 @@
         <v>16</v>
       </c>
       <c r="C98">
-        <v>0.78</v>
+        <v>0.695</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1538,7 +1538,7 @@
         <v>17</v>
       </c>
       <c r="C99">
-        <v>0.39</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1549,7 +1549,7 @@
         <v>18</v>
       </c>
       <c r="C100">
-        <v>0.93</v>
+        <v>0.8159999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1560,7 +1560,7 @@
         <v>19</v>
       </c>
       <c r="C101">
-        <v>0.585</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1571,7 +1571,7 @@
         <v>20</v>
       </c>
       <c r="C102">
-        <v>0.775</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1582,7 +1582,7 @@
         <v>21</v>
       </c>
       <c r="C103">
-        <v>0.8</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1593,7 +1593,7 @@
         <v>22</v>
       </c>
       <c r="C104">
-        <v>0.775</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1604,7 +1604,7 @@
         <v>23</v>
       </c>
       <c r="C105">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1615,7 +1615,7 @@
         <v>24</v>
       </c>
       <c r="C106">
-        <v>0.27</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1626,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="C107">
-        <v>0.09</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1637,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="C108">
-        <v>0.115</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1648,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="C109">
-        <v>0.08500000000000001</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1659,7 +1659,7 @@
         <v>6</v>
       </c>
       <c r="C110">
-        <v>0.01</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1670,7 +1670,7 @@
         <v>7</v>
       </c>
       <c r="C111">
-        <v>0.16</v>
+        <v>0.785</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1681,7 +1681,7 @@
         <v>9</v>
       </c>
       <c r="C112">
-        <v>0.01</v>
+        <v>0.545</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1692,7 +1692,7 @@
         <v>10</v>
       </c>
       <c r="C113">
-        <v>0.405</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1703,7 +1703,7 @@
         <v>11</v>
       </c>
       <c r="C114">
-        <v>0.005</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1714,7 +1714,7 @@
         <v>12</v>
       </c>
       <c r="C115">
-        <v>0.03</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1725,7 +1725,7 @@
         <v>13</v>
       </c>
       <c r="C116">
-        <v>0.07000000000000001</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1736,7 +1736,7 @@
         <v>14</v>
       </c>
       <c r="C117">
-        <v>0.075</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1747,7 +1747,7 @@
         <v>15</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1758,7 +1758,7 @@
         <v>16</v>
       </c>
       <c r="C119">
-        <v>0.21</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1769,7 +1769,7 @@
         <v>17</v>
       </c>
       <c r="C120">
-        <v>0.035</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1780,7 +1780,7 @@
         <v>18</v>
       </c>
       <c r="C121">
-        <v>0.06</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1791,7 +1791,7 @@
         <v>19</v>
       </c>
       <c r="C122">
-        <v>0.415</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1802,7 +1802,7 @@
         <v>20</v>
       </c>
       <c r="C123">
-        <v>0.125</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1824,7 +1824,7 @@
         <v>22</v>
       </c>
       <c r="C125">
-        <v>0.045</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1835,7 +1835,7 @@
         <v>23</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1846,7 +1846,7 @@
         <v>24</v>
       </c>
       <c r="C127">
-        <v>0.1</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1857,7 +1857,7 @@
         <v>3</v>
       </c>
       <c r="C128">
-        <v>0.295</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1868,7 +1868,7 @@
         <v>4</v>
       </c>
       <c r="C129">
-        <v>0.325</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1879,7 +1879,7 @@
         <v>5</v>
       </c>
       <c r="C130">
-        <v>0.66</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1890,7 +1890,7 @@
         <v>6</v>
       </c>
       <c r="C131">
-        <v>0.07000000000000001</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1901,7 +1901,7 @@
         <v>7</v>
       </c>
       <c r="C132">
-        <v>0.68</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1912,7 +1912,7 @@
         <v>8</v>
       </c>
       <c r="C133">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1923,7 +1923,7 @@
         <v>10</v>
       </c>
       <c r="C134">
-        <v>0.245</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1934,7 +1934,7 @@
         <v>11</v>
       </c>
       <c r="C135">
-        <v>0.195</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1945,7 +1945,7 @@
         <v>12</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>0.465</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1956,7 +1956,7 @@
         <v>13</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1967,7 +1967,7 @@
         <v>14</v>
       </c>
       <c r="C138">
-        <v>0.73</v>
+        <v>0.805</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1978,7 +1978,7 @@
         <v>15</v>
       </c>
       <c r="C139">
-        <v>0.07000000000000001</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1989,7 +1989,7 @@
         <v>16</v>
       </c>
       <c r="C140">
-        <v>0.575</v>
+        <v>0.695</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2000,7 +2000,7 @@
         <v>17</v>
       </c>
       <c r="C141">
-        <v>0.23</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2011,7 +2011,7 @@
         <v>18</v>
       </c>
       <c r="C142">
-        <v>0.695</v>
+        <v>0.7909999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2022,7 +2022,7 @@
         <v>19</v>
       </c>
       <c r="C143">
-        <v>0.345</v>
+        <v>0.755</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2033,7 +2033,7 @@
         <v>20</v>
       </c>
       <c r="C144">
-        <v>0.55</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2044,7 +2044,7 @@
         <v>21</v>
       </c>
       <c r="C145">
-        <v>0.07000000000000001</v>
+        <v>0.336</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2055,7 +2055,7 @@
         <v>22</v>
       </c>
       <c r="C146">
-        <v>0.525</v>
+        <v>0.665</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2066,7 +2066,7 @@
         <v>23</v>
       </c>
       <c r="C147">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2077,7 +2077,7 @@
         <v>24</v>
       </c>
       <c r="C148">
-        <v>0.165</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2088,7 +2088,7 @@
         <v>3</v>
       </c>
       <c r="C149">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2099,7 +2099,7 @@
         <v>4</v>
       </c>
       <c r="C150">
-        <v>0.115</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2110,7 +2110,7 @@
         <v>5</v>
       </c>
       <c r="C151">
-        <v>0.08500000000000001</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2121,7 +2121,7 @@
         <v>6</v>
       </c>
       <c r="C152">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2132,7 +2132,7 @@
         <v>7</v>
       </c>
       <c r="C153">
-        <v>0.16</v>
+        <v>0.795</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2143,7 +2143,7 @@
         <v>8</v>
       </c>
       <c r="C154">
-        <v>0.04</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2154,7 +2154,7 @@
         <v>9</v>
       </c>
       <c r="C155">
-        <v>0.01</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2165,7 +2165,7 @@
         <v>11</v>
       </c>
       <c r="C156">
-        <v>0.005</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2176,7 +2176,7 @@
         <v>12</v>
       </c>
       <c r="C157">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2187,7 +2187,7 @@
         <v>13</v>
       </c>
       <c r="C158">
-        <v>0.07000000000000001</v>
+        <v>0.165</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2198,7 +2198,7 @@
         <v>14</v>
       </c>
       <c r="C159">
-        <v>0.075</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2209,7 +2209,7 @@
         <v>15</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2220,7 +2220,7 @@
         <v>16</v>
       </c>
       <c r="C161">
-        <v>0.21</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2231,7 +2231,7 @@
         <v>17</v>
       </c>
       <c r="C162">
-        <v>0.035</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2242,7 +2242,7 @@
         <v>18</v>
       </c>
       <c r="C163">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2253,7 +2253,7 @@
         <v>19</v>
       </c>
       <c r="C164">
-        <v>0.415</v>
+        <v>0.705</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2264,7 +2264,7 @@
         <v>20</v>
       </c>
       <c r="C165">
-        <v>0.125</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2275,7 +2275,7 @@
         <v>21</v>
       </c>
       <c r="C166">
-        <v>0.005</v>
+        <v>0.165</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2286,7 +2286,7 @@
         <v>22</v>
       </c>
       <c r="C167">
-        <v>0.045</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2297,7 +2297,7 @@
         <v>23</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2308,7 +2308,7 @@
         <v>24</v>
       </c>
       <c r="C169">
-        <v>0.1</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2319,7 +2319,7 @@
         <v>3</v>
       </c>
       <c r="C170">
-        <v>0.845</v>
+        <v>0.735</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2330,7 +2330,7 @@
         <v>4</v>
       </c>
       <c r="C171">
-        <v>0.71</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2341,7 +2341,7 @@
         <v>5</v>
       </c>
       <c r="C172">
-        <v>0.98</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2352,7 +2352,7 @@
         <v>6</v>
       </c>
       <c r="C173">
-        <v>0.645</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2363,7 +2363,7 @@
         <v>7</v>
       </c>
       <c r="C174">
-        <v>0.89</v>
+        <v>0.865</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2385,7 +2385,7 @@
         <v>9</v>
       </c>
       <c r="C176">
-        <v>0.775</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2396,7 +2396,7 @@
         <v>10</v>
       </c>
       <c r="C177">
-        <v>0.855</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2418,7 +2418,7 @@
         <v>13</v>
       </c>
       <c r="C179">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2429,7 +2429,7 @@
         <v>14</v>
       </c>
       <c r="C180">
-        <v>0.98</v>
+        <v>0.6850000000000001</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2440,7 +2440,7 @@
         <v>15</v>
       </c>
       <c r="C181">
-        <v>0.655</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2451,7 +2451,7 @@
         <v>16</v>
       </c>
       <c r="C182">
-        <v>0.975</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2462,7 +2462,7 @@
         <v>17</v>
       </c>
       <c r="C183">
-        <v>0.785</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2473,7 +2473,7 @@
         <v>18</v>
       </c>
       <c r="C184">
-        <v>0.945</v>
+        <v>0.6609999999999999</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2484,7 +2484,7 @@
         <v>19</v>
       </c>
       <c r="C185">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2495,7 +2495,7 @@
         <v>20</v>
       </c>
       <c r="C186">
-        <v>0.95</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2506,7 +2506,7 @@
         <v>21</v>
       </c>
       <c r="C187">
-        <v>0.8</v>
+        <v>0.611</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2517,7 +2517,7 @@
         <v>22</v>
       </c>
       <c r="C188">
-        <v>0.9350000000000001</v>
+        <v>0.645</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2528,7 +2528,7 @@
         <v>23</v>
       </c>
       <c r="C189">
-        <v>0.47</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2539,7 +2539,7 @@
         <v>24</v>
       </c>
       <c r="C190">
-        <v>0.615</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2550,7 +2550,7 @@
         <v>3</v>
       </c>
       <c r="C191">
-        <v>0.09</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2561,7 +2561,7 @@
         <v>4</v>
       </c>
       <c r="C192">
-        <v>0.115</v>
+        <v>0.8149999999999999</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2572,7 +2572,7 @@
         <v>5</v>
       </c>
       <c r="C193">
-        <v>0.08500000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2583,7 +2583,7 @@
         <v>6</v>
       </c>
       <c r="C194">
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2594,7 +2594,7 @@
         <v>7</v>
       </c>
       <c r="C195">
-        <v>0.16</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2605,7 +2605,7 @@
         <v>8</v>
       </c>
       <c r="C196">
-        <v>0.04</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2616,7 +2616,7 @@
         <v>9</v>
       </c>
       <c r="C197">
-        <v>0.01</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2627,7 +2627,7 @@
         <v>10</v>
       </c>
       <c r="C198">
-        <v>0.405</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2638,7 +2638,7 @@
         <v>11</v>
       </c>
       <c r="C199">
-        <v>0.005</v>
+        <v>0.205</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2649,7 +2649,7 @@
         <v>13</v>
       </c>
       <c r="C200">
-        <v>0.07000000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2660,7 +2660,7 @@
         <v>14</v>
       </c>
       <c r="C201">
-        <v>0.075</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2671,7 +2671,7 @@
         <v>15</v>
       </c>
       <c r="C202">
-        <v>0</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2682,7 +2682,7 @@
         <v>16</v>
       </c>
       <c r="C203">
-        <v>0.21</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2693,7 +2693,7 @@
         <v>17</v>
       </c>
       <c r="C204">
-        <v>0.035</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2704,7 +2704,7 @@
         <v>18</v>
       </c>
       <c r="C205">
-        <v>0.06</v>
+        <v>0.515</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2715,7 +2715,7 @@
         <v>19</v>
       </c>
       <c r="C206">
-        <v>0.415</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2726,7 +2726,7 @@
         <v>20</v>
       </c>
       <c r="C207">
-        <v>0.125</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2737,7 +2737,7 @@
         <v>21</v>
       </c>
       <c r="C208">
-        <v>0.005</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2748,7 +2748,7 @@
         <v>22</v>
       </c>
       <c r="C209">
-        <v>0.045</v>
+        <v>0.535</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2759,7 +2759,7 @@
         <v>23</v>
       </c>
       <c r="C210">
-        <v>0</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2770,7 +2770,7 @@
         <v>24</v>
       </c>
       <c r="C211">
-        <v>0.1</v>
+        <v>0.715</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2781,7 +2781,7 @@
         <v>3</v>
       </c>
       <c r="C212">
-        <v>0.09</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2792,7 +2792,7 @@
         <v>4</v>
       </c>
       <c r="C213">
-        <v>0.125</v>
+        <v>0.595</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2803,7 +2803,7 @@
         <v>5</v>
       </c>
       <c r="C214">
-        <v>0.11</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2825,7 +2825,7 @@
         <v>7</v>
       </c>
       <c r="C216">
-        <v>0.16</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2836,7 +2836,7 @@
         <v>8</v>
       </c>
       <c r="C217">
-        <v>0.04</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2847,7 +2847,7 @@
         <v>9</v>
       </c>
       <c r="C218">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2858,7 +2858,7 @@
         <v>10</v>
       </c>
       <c r="C219">
-        <v>0.405</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2869,7 +2869,7 @@
         <v>11</v>
       </c>
       <c r="C220">
-        <v>0.005</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2880,7 +2880,7 @@
         <v>12</v>
       </c>
       <c r="C221">
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2891,7 +2891,7 @@
         <v>14</v>
       </c>
       <c r="C222">
-        <v>0.09</v>
+        <v>0.465</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2902,7 +2902,7 @@
         <v>15</v>
       </c>
       <c r="C223">
-        <v>0</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2913,7 +2913,7 @@
         <v>16</v>
       </c>
       <c r="C224">
-        <v>0.31</v>
+        <v>0.905</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2924,7 +2924,7 @@
         <v>17</v>
       </c>
       <c r="C225">
-        <v>0.035</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2935,7 +2935,7 @@
         <v>18</v>
       </c>
       <c r="C226">
-        <v>0.075</v>
+        <v>0.645</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2946,7 +2946,7 @@
         <v>19</v>
       </c>
       <c r="C227">
-        <v>0.415</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2957,7 +2957,7 @@
         <v>20</v>
       </c>
       <c r="C228">
-        <v>0.245</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2968,7 +2968,7 @@
         <v>21</v>
       </c>
       <c r="C229">
-        <v>0.005</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2979,7 +2979,7 @@
         <v>22</v>
       </c>
       <c r="C230">
-        <v>0.07000000000000001</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2990,7 +2990,7 @@
         <v>23</v>
       </c>
       <c r="C231">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3001,7 +3001,7 @@
         <v>24</v>
       </c>
       <c r="C232">
-        <v>0.145</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3012,7 +3012,7 @@
         <v>3</v>
       </c>
       <c r="C233">
-        <v>0.35</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3023,7 +3023,7 @@
         <v>4</v>
       </c>
       <c r="C234">
-        <v>0.695</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3034,7 +3034,7 @@
         <v>5</v>
       </c>
       <c r="C235">
-        <v>0.775</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3045,7 +3045,7 @@
         <v>6</v>
       </c>
       <c r="C236">
-        <v>0.175</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3056,7 +3056,7 @@
         <v>7</v>
       </c>
       <c r="C237">
-        <v>0.5649999999999999</v>
+        <v>0.845</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3067,7 +3067,7 @@
         <v>8</v>
       </c>
       <c r="C238">
-        <v>0.725</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3078,7 +3078,7 @@
         <v>9</v>
       </c>
       <c r="C239">
-        <v>0.245</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3089,7 +3089,7 @@
         <v>10</v>
       </c>
       <c r="C240">
-        <v>0.93</v>
+        <v>0.855</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3100,7 +3100,7 @@
         <v>11</v>
       </c>
       <c r="C241">
-        <v>0.175</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3111,7 +3111,7 @@
         <v>12</v>
       </c>
       <c r="C242">
-        <v>0.68</v>
+        <v>0.835</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3122,7 +3122,7 @@
         <v>13</v>
       </c>
       <c r="C243">
-        <v>0.905</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3133,7 +3133,7 @@
         <v>15</v>
       </c>
       <c r="C244">
-        <v>0.15</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3144,7 +3144,7 @@
         <v>16</v>
       </c>
       <c r="C245">
-        <v>0.875</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3155,7 +3155,7 @@
         <v>17</v>
       </c>
       <c r="C246">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3166,7 +3166,7 @@
         <v>18</v>
       </c>
       <c r="C247">
-        <v>0.76</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3177,7 +3177,7 @@
         <v>19</v>
       </c>
       <c r="C248">
-        <v>0.965</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3188,7 +3188,7 @@
         <v>20</v>
       </c>
       <c r="C249">
-        <v>0.845</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3199,7 +3199,7 @@
         <v>21</v>
       </c>
       <c r="C250">
-        <v>0.655</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3210,7 +3210,7 @@
         <v>22</v>
       </c>
       <c r="C251">
-        <v>0.725</v>
+        <v>0.765</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3221,7 +3221,7 @@
         <v>23</v>
       </c>
       <c r="C252">
-        <v>0.14</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3232,7 +3232,7 @@
         <v>24</v>
       </c>
       <c r="C253">
-        <v>0.57</v>
+        <v>0.555</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3243,7 +3243,7 @@
         <v>3</v>
       </c>
       <c r="C254">
-        <v>0.515</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3254,7 +3254,7 @@
         <v>4</v>
       </c>
       <c r="C255">
-        <v>0.27</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3265,7 +3265,7 @@
         <v>5</v>
       </c>
       <c r="C256">
-        <v>0.795</v>
+        <v>0.345</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3276,7 +3276,7 @@
         <v>6</v>
       </c>
       <c r="C257">
-        <v>0.195</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3287,7 +3287,7 @@
         <v>7</v>
       </c>
       <c r="C258">
-        <v>0.63</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3298,7 +3298,7 @@
         <v>8</v>
       </c>
       <c r="C259">
-        <v>0.465</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3309,7 +3309,7 @@
         <v>9</v>
       </c>
       <c r="C260">
-        <v>0.395</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3320,7 +3320,7 @@
         <v>10</v>
       </c>
       <c r="C261">
-        <v>0.48</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3331,7 +3331,7 @@
         <v>11</v>
       </c>
       <c r="C262">
-        <v>0.09</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3342,7 +3342,7 @@
         <v>12</v>
       </c>
       <c r="C263">
-        <v>0.45</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3353,7 +3353,7 @@
         <v>13</v>
       </c>
       <c r="C264">
-        <v>0.38</v>
+        <v>0.805</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3364,7 +3364,7 @@
         <v>14</v>
       </c>
       <c r="C265">
-        <v>0.8</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3375,7 +3375,7 @@
         <v>16</v>
       </c>
       <c r="C266">
-        <v>0.8149999999999999</v>
+        <v>0.895</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3386,7 +3386,7 @@
         <v>17</v>
       </c>
       <c r="C267">
-        <v>0.435</v>
+        <v>0.665</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3397,7 +3397,7 @@
         <v>18</v>
       </c>
       <c r="C268">
-        <v>0.715</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3408,7 +3408,7 @@
         <v>19</v>
       </c>
       <c r="C269">
-        <v>0.545</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3419,7 +3419,7 @@
         <v>20</v>
       </c>
       <c r="C270">
-        <v>0.785</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3430,7 +3430,7 @@
         <v>21</v>
       </c>
       <c r="C271">
-        <v>0.355</v>
+        <v>0.421</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3441,7 +3441,7 @@
         <v>22</v>
       </c>
       <c r="C272">
-        <v>0.765</v>
+        <v>0.715</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3452,7 +3452,7 @@
         <v>23</v>
       </c>
       <c r="C273">
-        <v>0.08</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3463,7 +3463,7 @@
         <v>24</v>
       </c>
       <c r="C274">
-        <v>0.125</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3474,7 +3474,7 @@
         <v>3</v>
       </c>
       <c r="C275">
-        <v>0.55</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3485,7 +3485,7 @@
         <v>4</v>
       </c>
       <c r="C276">
-        <v>0.24</v>
+        <v>0.635</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3496,7 +3496,7 @@
         <v>5</v>
       </c>
       <c r="C277">
-        <v>0.36</v>
+        <v>0.355</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3507,7 +3507,7 @@
         <v>6</v>
       </c>
       <c r="C278">
-        <v>0.27</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3518,7 +3518,7 @@
         <v>7</v>
       </c>
       <c r="C279">
-        <v>0.915</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3529,7 +3529,7 @@
         <v>8</v>
       </c>
       <c r="C280">
-        <v>0.05</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3540,7 +3540,7 @@
         <v>9</v>
       </c>
       <c r="C281">
-        <v>0.575</v>
+        <v>0.865</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3551,7 +3551,7 @@
         <v>10</v>
       </c>
       <c r="C282">
-        <v>0.255</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3562,7 +3562,7 @@
         <v>11</v>
       </c>
       <c r="C283">
-        <v>0.265</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3573,7 +3573,7 @@
         <v>12</v>
       </c>
       <c r="C284">
-        <v>0</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3584,7 +3584,7 @@
         <v>13</v>
       </c>
       <c r="C285">
-        <v>0.01</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3595,7 +3595,7 @@
         <v>14</v>
       </c>
       <c r="C286">
-        <v>0.435</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3606,7 +3606,7 @@
         <v>15</v>
       </c>
       <c r="C287">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3617,7 +3617,7 @@
         <v>17</v>
       </c>
       <c r="C288">
-        <v>0.495</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3628,7 +3628,7 @@
         <v>18</v>
       </c>
       <c r="C289">
-        <v>0.42</v>
+        <v>0.471</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3639,7 +3639,7 @@
         <v>19</v>
       </c>
       <c r="C290">
-        <v>0.355</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3661,7 +3661,7 @@
         <v>21</v>
       </c>
       <c r="C292">
-        <v>0.06</v>
+        <v>0.176</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3672,7 +3672,7 @@
         <v>22</v>
       </c>
       <c r="C293">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3683,7 +3683,7 @@
         <v>23</v>
       </c>
       <c r="C294">
-        <v>0.205</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3694,7 +3694,7 @@
         <v>24</v>
       </c>
       <c r="C295">
-        <v>0.015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3705,7 +3705,7 @@
         <v>3</v>
       </c>
       <c r="C296">
-        <v>0.675</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3716,7 +3716,7 @@
         <v>4</v>
       </c>
       <c r="C297">
-        <v>0.48</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3727,7 +3727,7 @@
         <v>5</v>
       </c>
       <c r="C298">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3738,7 +3738,7 @@
         <v>6</v>
       </c>
       <c r="C299">
-        <v>0.165</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3749,7 +3749,7 @@
         <v>7</v>
       </c>
       <c r="C300">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3760,7 +3760,7 @@
         <v>8</v>
       </c>
       <c r="C301">
-        <v>0.575</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3771,7 +3771,7 @@
         <v>9</v>
       </c>
       <c r="C302">
-        <v>0.62</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3782,7 +3782,7 @@
         <v>10</v>
       </c>
       <c r="C303">
-        <v>0.555</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3793,7 +3793,7 @@
         <v>11</v>
       </c>
       <c r="C304">
-        <v>0.35</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3804,7 +3804,7 @@
         <v>12</v>
       </c>
       <c r="C305">
-        <v>0.555</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3815,7 +3815,7 @@
         <v>13</v>
       </c>
       <c r="C306">
-        <v>0.515</v>
+        <v>0.865</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3826,7 +3826,7 @@
         <v>14</v>
       </c>
       <c r="C307">
-        <v>0.985</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3837,7 +3837,7 @@
         <v>15</v>
       </c>
       <c r="C308">
-        <v>0.19</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3848,7 +3848,7 @@
         <v>16</v>
       </c>
       <c r="C309">
-        <v>0.84</v>
+        <v>0.895</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3859,7 +3859,7 @@
         <v>18</v>
       </c>
       <c r="C310">
-        <v>0.975</v>
+        <v>0.946</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3870,7 +3870,7 @@
         <v>19</v>
       </c>
       <c r="C311">
-        <v>0.625</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3881,7 +3881,7 @@
         <v>20</v>
       </c>
       <c r="C312">
-        <v>0.85</v>
+        <v>0.955</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3892,7 +3892,7 @@
         <v>21</v>
       </c>
       <c r="C313">
-        <v>0.865</v>
+        <v>0.826</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3903,7 +3903,7 @@
         <v>22</v>
       </c>
       <c r="C314">
-        <v>0.845</v>
+        <v>0.945</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3914,7 +3914,7 @@
         <v>23</v>
       </c>
       <c r="C315">
-        <v>0.2</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3925,7 +3925,7 @@
         <v>24</v>
       </c>
       <c r="C316">
-        <v>0.34</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3936,7 +3936,7 @@
         <v>3</v>
       </c>
       <c r="C317">
-        <v>0.14</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3947,7 +3947,7 @@
         <v>4</v>
       </c>
       <c r="C318">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3958,7 +3958,7 @@
         <v>5</v>
       </c>
       <c r="C319">
-        <v>0.27</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3969,7 +3969,7 @@
         <v>6</v>
       </c>
       <c r="C320">
-        <v>0.045</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3980,7 +3980,7 @@
         <v>7</v>
       </c>
       <c r="C321">
-        <v>0.23</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3991,7 +3991,7 @@
         <v>8</v>
       </c>
       <c r="C322">
-        <v>0.17</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -4002,7 +4002,7 @@
         <v>9</v>
       </c>
       <c r="C323">
-        <v>0.045</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -4013,7 +4013,7 @@
         <v>10</v>
       </c>
       <c r="C324">
-        <v>0.49</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -4035,7 +4035,7 @@
         <v>12</v>
       </c>
       <c r="C326">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -4046,7 +4046,7 @@
         <v>13</v>
       </c>
       <c r="C327">
-        <v>0.25</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -4057,7 +4057,7 @@
         <v>14</v>
       </c>
       <c r="C328">
-        <v>0.165</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -4068,7 +4068,7 @@
         <v>15</v>
       </c>
       <c r="C329">
-        <v>0.035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4079,7 +4079,7 @@
         <v>16</v>
       </c>
       <c r="C330">
-        <v>0.635</v>
+        <v>0.465</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4090,7 +4090,7 @@
         <v>17</v>
       </c>
       <c r="C331">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4101,7 +4101,7 @@
         <v>19</v>
       </c>
       <c r="C332">
-        <v>0.505</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4112,7 +4112,7 @@
         <v>20</v>
       </c>
       <c r="C333">
-        <v>0.59</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4123,7 +4123,7 @@
         <v>21</v>
       </c>
       <c r="C334">
-        <v>0.055</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4134,7 +4134,7 @@
         <v>22</v>
       </c>
       <c r="C335">
-        <v>0.23</v>
+        <v>0.205</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4145,7 +4145,7 @@
         <v>23</v>
       </c>
       <c r="C336">
-        <v>0.04</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4156,7 +4156,7 @@
         <v>24</v>
       </c>
       <c r="C337">
-        <v>0.405</v>
+        <v>0.205</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4167,7 +4167,7 @@
         <v>3</v>
       </c>
       <c r="C338">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4178,7 +4178,7 @@
         <v>4</v>
       </c>
       <c r="C339">
-        <v>0.115</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4189,7 +4189,7 @@
         <v>5</v>
       </c>
       <c r="C340">
-        <v>0.08500000000000001</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4200,7 +4200,7 @@
         <v>6</v>
       </c>
       <c r="C341">
-        <v>0.01</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4211,7 +4211,7 @@
         <v>7</v>
       </c>
       <c r="C342">
-        <v>0.16</v>
+        <v>0.665</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4222,7 +4222,7 @@
         <v>8</v>
       </c>
       <c r="C343">
-        <v>0.04</v>
+        <v>0.145</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4233,7 +4233,7 @@
         <v>9</v>
       </c>
       <c r="C344">
-        <v>0.01</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4244,7 +4244,7 @@
         <v>10</v>
       </c>
       <c r="C345">
-        <v>0.405</v>
+        <v>0.635</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4255,7 +4255,7 @@
         <v>11</v>
       </c>
       <c r="C346">
-        <v>0.005</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4266,7 +4266,7 @@
         <v>12</v>
       </c>
       <c r="C347">
-        <v>0.03</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4277,7 +4277,7 @@
         <v>13</v>
       </c>
       <c r="C348">
-        <v>0.07000000000000001</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4288,7 +4288,7 @@
         <v>14</v>
       </c>
       <c r="C349">
-        <v>0.075</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4299,7 +4299,7 @@
         <v>15</v>
       </c>
       <c r="C350">
-        <v>0</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4310,7 +4310,7 @@
         <v>16</v>
       </c>
       <c r="C351">
-        <v>0.21</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4321,7 +4321,7 @@
         <v>17</v>
       </c>
       <c r="C352">
-        <v>0.035</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4332,7 +4332,7 @@
         <v>18</v>
       </c>
       <c r="C353">
-        <v>0.06</v>
+        <v>0.145</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4343,7 +4343,7 @@
         <v>20</v>
       </c>
       <c r="C354">
-        <v>0.125</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4354,7 +4354,7 @@
         <v>21</v>
       </c>
       <c r="C355">
-        <v>0.005</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4365,7 +4365,7 @@
         <v>22</v>
       </c>
       <c r="C356">
-        <v>0.045</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4376,7 +4376,7 @@
         <v>23</v>
       </c>
       <c r="C357">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4387,7 +4387,7 @@
         <v>24</v>
       </c>
       <c r="C358">
-        <v>0.1</v>
+        <v>0.355</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4398,7 +4398,7 @@
         <v>3</v>
       </c>
       <c r="C359">
-        <v>0.475</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4409,7 +4409,7 @@
         <v>4</v>
       </c>
       <c r="C360">
-        <v>0.245</v>
+        <v>0.645</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4420,7 +4420,7 @@
         <v>5</v>
       </c>
       <c r="C361">
-        <v>0.34</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4431,7 +4431,7 @@
         <v>6</v>
       </c>
       <c r="C362">
-        <v>0.24</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4442,7 +4442,7 @@
         <v>7</v>
       </c>
       <c r="C363">
-        <v>0.805</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4453,7 +4453,7 @@
         <v>8</v>
       </c>
       <c r="C364">
-        <v>0.065</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4464,7 +4464,7 @@
         <v>9</v>
       </c>
       <c r="C365">
-        <v>0.465</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4475,7 +4475,7 @@
         <v>10</v>
       </c>
       <c r="C366">
-        <v>0.26</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4486,7 +4486,7 @@
         <v>11</v>
       </c>
       <c r="C367">
-        <v>0.245</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4497,7 +4497,7 @@
         <v>12</v>
       </c>
       <c r="C368">
-        <v>0</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4508,7 +4508,7 @@
         <v>13</v>
       </c>
       <c r="C369">
-        <v>0.17</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4519,7 +4519,7 @@
         <v>14</v>
       </c>
       <c r="C370">
-        <v>0.415</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4530,7 +4530,7 @@
         <v>15</v>
       </c>
       <c r="C371">
-        <v>0.195</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4541,7 +4541,7 @@
         <v>16</v>
       </c>
       <c r="C372">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4552,7 +4552,7 @@
         <v>17</v>
       </c>
       <c r="C373">
-        <v>0.42</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4563,7 +4563,7 @@
         <v>18</v>
       </c>
       <c r="C374">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4574,7 +4574,7 @@
         <v>19</v>
       </c>
       <c r="C375">
-        <v>0.36</v>
+        <v>0.465</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4585,7 +4585,7 @@
         <v>21</v>
       </c>
       <c r="C376">
-        <v>0.08500000000000001</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4596,7 +4596,7 @@
         <v>22</v>
       </c>
       <c r="C377">
-        <v>0.2</v>
+        <v>0.205</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4607,7 +4607,7 @@
         <v>23</v>
       </c>
       <c r="C378">
-        <v>0.185</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4618,7 +4618,7 @@
         <v>24</v>
       </c>
       <c r="C379">
-        <v>0.015</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4629,7 +4629,7 @@
         <v>3</v>
       </c>
       <c r="C380">
-        <v>0.1</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4640,7 +4640,7 @@
         <v>4</v>
       </c>
       <c r="C381">
-        <v>0.17</v>
+        <v>0.585</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4651,7 +4651,7 @@
         <v>5</v>
       </c>
       <c r="C382">
-        <v>0.175</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4673,7 +4673,7 @@
         <v>7</v>
       </c>
       <c r="C384">
-        <v>0.18</v>
+        <v>0.6850000000000001</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4684,7 +4684,7 @@
         <v>8</v>
       </c>
       <c r="C385">
-        <v>0.075</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4695,7 +4695,7 @@
         <v>9</v>
       </c>
       <c r="C386">
-        <v>0.02</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4706,7 +4706,7 @@
         <v>10</v>
       </c>
       <c r="C387">
-        <v>0.445</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4717,7 +4717,7 @@
         <v>11</v>
       </c>
       <c r="C388">
-        <v>0.005</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4728,7 +4728,7 @@
         <v>12</v>
       </c>
       <c r="C389">
-        <v>0.065</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4739,7 +4739,7 @@
         <v>13</v>
       </c>
       <c r="C390">
-        <v>0.105</v>
+        <v>0.165</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4750,7 +4750,7 @@
         <v>14</v>
       </c>
       <c r="C391">
-        <v>0.13</v>
+        <v>0.535</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4761,7 +4761,7 @@
         <v>15</v>
       </c>
       <c r="C392">
-        <v>0</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4772,7 +4772,7 @@
         <v>16</v>
       </c>
       <c r="C393">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4783,7 +4783,7 @@
         <v>17</v>
       </c>
       <c r="C394">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4794,7 +4794,7 @@
         <v>18</v>
       </c>
       <c r="C395">
-        <v>0.11</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4805,7 +4805,7 @@
         <v>19</v>
       </c>
       <c r="C396">
-        <v>0.46</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4816,7 +4816,7 @@
         <v>20</v>
       </c>
       <c r="C397">
-        <v>0.425</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4827,7 +4827,7 @@
         <v>22</v>
       </c>
       <c r="C398">
-        <v>0.135</v>
+        <v>0.655</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4838,7 +4838,7 @@
         <v>23</v>
       </c>
       <c r="C399">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4849,7 +4849,7 @@
         <v>24</v>
       </c>
       <c r="C400">
-        <v>0.265</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4860,7 +4860,7 @@
         <v>3</v>
       </c>
       <c r="C401">
-        <v>0.52</v>
+        <v>0.355</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4871,7 +4871,7 @@
         <v>4</v>
       </c>
       <c r="C402">
-        <v>0.725</v>
+        <v>0.865</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4893,7 +4893,7 @@
         <v>6</v>
       </c>
       <c r="C404">
-        <v>0.315</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4904,7 +4904,7 @@
         <v>7</v>
       </c>
       <c r="C405">
-        <v>0.76</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4915,7 +4915,7 @@
         <v>8</v>
       </c>
       <c r="C406">
-        <v>0.635</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -4926,7 +4926,7 @@
         <v>9</v>
       </c>
       <c r="C407">
-        <v>0.45</v>
+        <v>0.905</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -4937,7 +4937,7 @@
         <v>10</v>
       </c>
       <c r="C408">
-        <v>0.945</v>
+        <v>0.905</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -4948,7 +4948,7 @@
         <v>11</v>
       </c>
       <c r="C409">
-        <v>0.29</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -4959,7 +4959,7 @@
         <v>12</v>
       </c>
       <c r="C410">
-        <v>0.59</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -4970,7 +4970,7 @@
         <v>13</v>
       </c>
       <c r="C411">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -4981,7 +4981,7 @@
         <v>14</v>
       </c>
       <c r="C412">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -4992,7 +4992,7 @@
         <v>15</v>
       </c>
       <c r="C413">
-        <v>0.285</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -5003,7 +5003,7 @@
         <v>16</v>
       </c>
       <c r="C414">
-        <v>0.915</v>
+        <v>0.855</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -5014,7 +5014,7 @@
         <v>17</v>
       </c>
       <c r="C415">
-        <v>0.45</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -5025,7 +5025,7 @@
         <v>18</v>
       </c>
       <c r="C416">
-        <v>0.845</v>
+        <v>0.855</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -5047,7 +5047,7 @@
         <v>20</v>
       </c>
       <c r="C418">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -5058,7 +5058,7 @@
         <v>21</v>
       </c>
       <c r="C419">
-        <v>0.625</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -5069,7 +5069,7 @@
         <v>23</v>
       </c>
       <c r="C420">
-        <v>0.245</v>
+        <v>0.585</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -5080,7 +5080,7 @@
         <v>24</v>
       </c>
       <c r="C421">
-        <v>0.58</v>
+        <v>0.535</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5091,7 +5091,7 @@
         <v>3</v>
       </c>
       <c r="C422">
-        <v>0.98</v>
+        <v>0.845</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5102,7 +5102,7 @@
         <v>4</v>
       </c>
       <c r="C423">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5113,7 +5113,7 @@
         <v>5</v>
       </c>
       <c r="C424">
-        <v>0.995</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5124,7 +5124,7 @@
         <v>6</v>
       </c>
       <c r="C425">
-        <v>0.85</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5135,7 +5135,7 @@
         <v>7</v>
       </c>
       <c r="C426">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -5146,7 +5146,7 @@
         <v>8</v>
       </c>
       <c r="C427">
-        <v>0.96</v>
+        <v>0.985</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5157,7 +5157,7 @@
         <v>9</v>
       </c>
       <c r="C428">
-        <v>0.875</v>
+        <v>0.805</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5168,7 +5168,7 @@
         <v>10</v>
       </c>
       <c r="C429">
-        <v>0.86</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5179,7 +5179,7 @@
         <v>11</v>
       </c>
       <c r="C430">
-        <v>0.725</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5190,7 +5190,7 @@
         <v>12</v>
       </c>
       <c r="C431">
-        <v>0.9350000000000001</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -5201,7 +5201,7 @@
         <v>13</v>
       </c>
       <c r="C432">
-        <v>0.875</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -5212,7 +5212,7 @@
         <v>14</v>
       </c>
       <c r="C433">
-        <v>0.995</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -5223,7 +5223,7 @@
         <v>15</v>
       </c>
       <c r="C434">
-        <v>0.905</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -5234,7 +5234,7 @@
         <v>16</v>
       </c>
       <c r="C435">
-        <v>0.995</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -5245,7 +5245,7 @@
         <v>17</v>
       </c>
       <c r="C436">
-        <v>0.9350000000000001</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -5256,7 +5256,7 @@
         <v>18</v>
       </c>
       <c r="C437">
-        <v>0.96</v>
+        <v>0.795</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5267,7 +5267,7 @@
         <v>19</v>
       </c>
       <c r="C438">
-        <v>0.905</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5278,7 +5278,7 @@
         <v>20</v>
       </c>
       <c r="C439">
-        <v>0.97</v>
+        <v>0.895</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -5289,7 +5289,7 @@
         <v>21</v>
       </c>
       <c r="C440">
-        <v>0.8149999999999999</v>
+        <v>0.725</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5300,7 +5300,7 @@
         <v>22</v>
       </c>
       <c r="C441">
-        <v>0.955</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5311,7 +5311,7 @@
         <v>24</v>
       </c>
       <c r="C442">
-        <v>0.755</v>
+        <v>0.535</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5322,7 +5322,7 @@
         <v>3</v>
       </c>
       <c r="C443">
-        <v>0.5649999999999999</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -5333,7 +5333,7 @@
         <v>4</v>
       </c>
       <c r="C444">
-        <v>0.32</v>
+        <v>0.635</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5344,7 +5344,7 @@
         <v>5</v>
       </c>
       <c r="C445">
-        <v>0.545</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5355,7 +5355,7 @@
         <v>6</v>
       </c>
       <c r="C446">
-        <v>0.275</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5366,7 +5366,7 @@
         <v>7</v>
       </c>
       <c r="C447">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5377,7 +5377,7 @@
         <v>8</v>
       </c>
       <c r="C448">
-        <v>0.07000000000000001</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5388,7 +5388,7 @@
         <v>9</v>
       </c>
       <c r="C449">
-        <v>0.62</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5399,7 +5399,7 @@
         <v>10</v>
       </c>
       <c r="C450">
-        <v>0.265</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5410,7 +5410,7 @@
         <v>11</v>
       </c>
       <c r="C451">
-        <v>0.345</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5421,7 +5421,7 @@
         <v>12</v>
       </c>
       <c r="C452">
-        <v>0.02</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5432,7 +5432,7 @@
         <v>13</v>
       </c>
       <c r="C453">
-        <v>0.04</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5443,7 +5443,7 @@
         <v>14</v>
       </c>
       <c r="C454">
-        <v>0.62</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5454,7 +5454,7 @@
         <v>15</v>
       </c>
       <c r="C455">
-        <v>0.245</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5465,7 +5465,7 @@
         <v>16</v>
       </c>
       <c r="C456">
-        <v>0.475</v>
+        <v>0.345</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5476,7 +5476,7 @@
         <v>17</v>
       </c>
       <c r="C457">
-        <v>0.52</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5487,7 +5487,7 @@
         <v>18</v>
       </c>
       <c r="C458">
-        <v>0.6</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5498,7 +5498,7 @@
         <v>19</v>
       </c>
       <c r="C459">
-        <v>0.365</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5509,7 +5509,7 @@
         <v>20</v>
       </c>
       <c r="C460">
-        <v>0.445</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5520,7 +5520,7 @@
         <v>21</v>
       </c>
       <c r="C461">
-        <v>0.1</v>
+        <v>0.186</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5531,7 +5531,7 @@
         <v>22</v>
       </c>
       <c r="C462">
-        <v>0.41</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5542,7 +5542,7 @@
         <v>23</v>
       </c>
       <c r="C463">
-        <v>0.215</v>
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
